--- a/biology/Botanique/Maison_du_Colombier/Maison_du_Colombier.xlsx
+++ b/biology/Botanique/Maison_du_Colombier/Maison_du_Colombier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Maison du Colombier est un hôtel particulier de style médiéval du XVIe siècle avec échauguette, et tour octogonale à toiture en tuile vernissée de Bourgogne, à Beaune en Côte-d'Or (Bourgogne-Franche-Comté). Façade et toiture sont inscrites aux monuments historiques depuis le 17 septembre 1943, et l'échauguette d'angle est inscrite depuis le 29 décembre 1927[2].
+La Maison du Colombier est un hôtel particulier de style médiéval du XVIe siècle avec échauguette, et tour octogonale à toiture en tuile vernissée de Bourgogne, à Beaune en Côte-d'Or (Bourgogne-Franche-Comté). Façade et toiture sont inscrites aux monuments historiques depuis le 17 septembre 1943, et l'échauguette d'angle est inscrite depuis le 29 décembre 1927.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet hôtel particulier est construit en 1572, à l’intérieur des remparts de l'ancien château-fort de Beaune des XVe siècle et XVIe siècle, à l'époque du duché de Bourgogne du roi Charles IX, dans le centre historique de Beaune, en face de la basilique Notre-Dame (XIIe siècle) et à deux pas des Hospices (XVe siècle) et de l'Hôtel des ducs de Bourgogne &amp; Musée du vin de Bourgogne (XIVe siècle).
-Il héberge à ce jour un hôtel-restaurant gastronomique-bar à vin, offrant de la cuisine bourguignonne et des produits du vignoble de Bourgogne[3].
+Il héberge à ce jour un hôtel-restaurant gastronomique-bar à vin, offrant de la cuisine bourguignonne et des produits du vignoble de Bourgogne.
 			Bar à vin, tartines,
 			et vins de Bourgogne
 </t>
